--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="45">
   <si>
     <t>lundi</t>
   </si>
@@ -156,6 +156,9 @@
     <t>Retention logs
 Rotation logs
 Syslog access</t>
+  </si>
+  <si>
+    <t>Graylog Clustering</t>
   </si>
 </sst>
 </file>
@@ -329,14 +332,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +681,7 @@
     <col min="9" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
@@ -692,8 +695,11 @@
       <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -704,7 +710,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -715,7 +721,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -726,7 +732,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -737,7 +743,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -752,7 +758,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -763,7 +769,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -774,7 +780,7 @@
       <c r="D8" s="14"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -785,7 +791,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -796,7 +802,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -807,7 +813,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -818,7 +824,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -833,7 +839,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -844,7 +850,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -855,7 +861,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
@@ -910,7 +916,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E20" s="9"/>
     </row>
@@ -956,7 +962,7 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1058,7 +1064,7 @@
         <v>43282</v>
       </c>
       <c r="C33" s="20"/>
-      <c r="D33" s="15"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,13 +1074,13 @@
       <c r="B34" s="7">
         <v>43283</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
@@ -1083,11 +1089,11 @@
       <c r="B35" s="7">
         <v>43284</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
@@ -1096,11 +1102,11 @@
       <c r="B36" s="7">
         <v>43285</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -1109,11 +1115,11 @@
       <c r="B37" s="7">
         <v>43286</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -1122,11 +1128,11 @@
       <c r="B38" s="7">
         <v>43287</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
@@ -1135,7 +1141,7 @@
       <c r="B39" s="7">
         <v>43288</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="9"/>
     </row>
@@ -1146,7 +1152,7 @@
       <c r="B40" s="7">
         <v>43289</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="9"/>
     </row>
@@ -1157,13 +1163,13 @@
       <c r="B41" s="7">
         <v>43290</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="C41" s="9"/>
       <c r="D41" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
@@ -1172,11 +1178,11 @@
       <c r="B42" s="7">
         <v>43291</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
@@ -1185,11 +1191,11 @@
       <c r="B43" s="7">
         <v>43292</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
@@ -1198,11 +1204,11 @@
       <c r="B44" s="7">
         <v>43293</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
@@ -1211,11 +1217,11 @@
       <c r="B45" s="7">
         <v>43294</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
@@ -2506,16 +2512,16 @@
     <mergeCell ref="C48:C61"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D13:D19"/>
-    <mergeCell ref="D20:D33"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="C27:C33"/>
     <mergeCell ref="C13:C19"/>
     <mergeCell ref="C20:C26"/>
-    <mergeCell ref="D34:D40"/>
     <mergeCell ref="D41:D47"/>
     <mergeCell ref="D48:D54"/>
     <mergeCell ref="D55:D61"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D20:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="47">
   <si>
     <t>lundi</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Scripts BASH - REGEX</t>
-  </si>
-  <si>
-    <t>UI graylog</t>
   </si>
   <si>
     <t>UI Graylog 
@@ -159,6 +156,15 @@
   </si>
   <si>
     <t>Graylog Clustering</t>
+  </si>
+  <si>
+    <t>Basic UI graylog</t>
+  </si>
+  <si>
+    <t>PAM</t>
+  </si>
+  <si>
+    <t>SELinux</t>
   </si>
 </sst>
 </file>
@@ -342,7 +348,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,10 +357,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,6 +367,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,7 +675,7 @@
   <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,10 +688,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
@@ -696,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -709,6 +715,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -720,6 +729,9 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -750,11 +762,11 @@
       <c r="B6" s="7">
         <v>43255</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>26</v>
+      <c r="D6" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -831,11 +843,11 @@
       <c r="B13" s="7">
         <v>43262</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>27</v>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -912,11 +924,11 @@
       <c r="B20" s="7">
         <v>43269</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>44</v>
+      <c r="D20" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="E20" s="9"/>
     </row>
@@ -963,7 +975,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,7 +1007,7 @@
       <c r="B27" s="7">
         <v>43276</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="14"/>
@@ -1008,7 +1020,7 @@
       <c r="B28" s="7">
         <v>43277</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="14"/>
       <c r="E28" s="9"/>
     </row>
@@ -1019,7 +1031,7 @@
       <c r="B29" s="7">
         <v>43278</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="14"/>
       <c r="E29" s="9"/>
     </row>
@@ -1030,7 +1042,7 @@
       <c r="B30" s="7">
         <v>43279</v>
       </c>
-      <c r="C30" s="19"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="14"/>
       <c r="E30" s="9"/>
     </row>
@@ -1041,7 +1053,7 @@
       <c r="B31" s="7">
         <v>43280</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="14"/>
       <c r="E31" s="9"/>
     </row>
@@ -1052,7 +1064,7 @@
       <c r="B32" s="7">
         <v>43281</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="14"/>
       <c r="E32" s="9"/>
     </row>
@@ -1063,7 +1075,7 @@
       <c r="B33" s="7">
         <v>43282</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="14"/>
       <c r="E33" s="9"/>
     </row>
@@ -1074,8 +1086,8 @@
       <c r="B34" s="7">
         <v>43283</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>30</v>
+      <c r="C34" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="12" t="s">
@@ -1164,8 +1176,8 @@
         <v>43290</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="13" t="s">
-        <v>31</v>
+      <c r="D41" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>15</v>
@@ -1252,11 +1264,11 @@
       <c r="B48" s="7">
         <v>43297</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>32</v>
+      <c r="D48" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="E48" s="9"/>
     </row>
@@ -1334,8 +1346,8 @@
         <v>43304</v>
       </c>
       <c r="C55" s="14"/>
-      <c r="D55" s="16" t="s">
-        <v>33</v>
+      <c r="D55" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="E55" s="9"/>
     </row>
@@ -1412,11 +1424,11 @@
       <c r="B62" s="7">
         <v>43311</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>34</v>
+      <c r="D62" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="E62" s="9"/>
     </row>
@@ -1427,7 +1439,7 @@
       <c r="B63" s="7">
         <v>43312</v>
       </c>
-      <c r="C63" s="19"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="14"/>
       <c r="E63" s="9"/>
     </row>
@@ -1438,7 +1450,7 @@
       <c r="B64" s="7">
         <v>43313</v>
       </c>
-      <c r="C64" s="19"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="14"/>
       <c r="E64" s="9"/>
     </row>
@@ -1449,7 +1461,7 @@
       <c r="B65" s="7">
         <v>43314</v>
       </c>
-      <c r="C65" s="19"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="14"/>
       <c r="E65" s="9"/>
     </row>
@@ -1460,7 +1472,7 @@
       <c r="B66" s="7">
         <v>43315</v>
       </c>
-      <c r="C66" s="19"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="14"/>
       <c r="E66" s="9"/>
     </row>
@@ -1471,7 +1483,7 @@
       <c r="B67" s="7">
         <v>43316</v>
       </c>
-      <c r="C67" s="19"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="14"/>
       <c r="E67" s="9"/>
     </row>
@@ -1482,7 +1494,7 @@
       <c r="B68" s="7">
         <v>43317</v>
       </c>
-      <c r="C68" s="20"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="14"/>
       <c r="E68" s="9"/>
     </row>
@@ -1493,8 +1505,8 @@
       <c r="B69" s="7">
         <v>43318</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>40</v>
+      <c r="C69" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="9"/>
@@ -1572,11 +1584,11 @@
       <c r="B76" s="7">
         <v>43325</v>
       </c>
-      <c r="C76" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>35</v>
+      <c r="C76" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="E76" s="9"/>
     </row>
@@ -1653,11 +1665,11 @@
       <c r="B83" s="7">
         <v>43332</v>
       </c>
-      <c r="C83" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>36</v>
+      <c r="C83" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="E83" s="9"/>
     </row>
@@ -1734,11 +1746,11 @@
       <c r="B90" s="7">
         <v>43339</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D90" s="13" t="s">
-        <v>37</v>
+      <c r="D90" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="E90" s="9"/>
     </row>
@@ -1749,7 +1761,7 @@
       <c r="B91" s="7">
         <v>43340</v>
       </c>
-      <c r="C91" s="19"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="14"/>
       <c r="E91" s="9"/>
     </row>
@@ -1760,7 +1772,7 @@
       <c r="B92" s="7">
         <v>43341</v>
       </c>
-      <c r="C92" s="19"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="14"/>
       <c r="E92" s="9"/>
     </row>
@@ -1771,7 +1783,7 @@
       <c r="B93" s="7">
         <v>43342</v>
       </c>
-      <c r="C93" s="19"/>
+      <c r="C93" s="18"/>
       <c r="D93" s="14"/>
       <c r="E93" s="9"/>
     </row>
@@ -1782,7 +1794,7 @@
       <c r="B94" s="7">
         <v>43343</v>
       </c>
-      <c r="C94" s="19"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="14"/>
       <c r="E94" s="9"/>
     </row>
@@ -1793,7 +1805,7 @@
       <c r="B95" s="7">
         <v>43344</v>
       </c>
-      <c r="C95" s="19"/>
+      <c r="C95" s="18"/>
       <c r="D95" s="14"/>
       <c r="E95" s="9"/>
     </row>
@@ -1804,7 +1816,7 @@
       <c r="B96" s="7">
         <v>43345</v>
       </c>
-      <c r="C96" s="20"/>
+      <c r="C96" s="19"/>
       <c r="D96" s="15"/>
       <c r="E96" s="9"/>
     </row>
@@ -1815,11 +1827,11 @@
       <c r="B97" s="7">
         <v>43346</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>43</v>
+      <c r="C97" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="E97" s="9"/>
     </row>
@@ -1897,8 +1909,8 @@
         <v>43353</v>
       </c>
       <c r="C104" s="14"/>
-      <c r="D104" s="13" t="s">
-        <v>38</v>
+      <c r="D104" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="E104" s="9"/>
     </row>
@@ -2497,18 +2509,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="C76:C82"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C97:C110"/>
-    <mergeCell ref="D62:D75"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="C69:C75"/>
     <mergeCell ref="C48:C61"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D13:D19"/>
@@ -2522,6 +2522,18 @@
     <mergeCell ref="D55:D61"/>
     <mergeCell ref="C34:C40"/>
     <mergeCell ref="D20:D40"/>
+    <mergeCell ref="D62:D75"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="C76:C82"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C97:C110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
